--- a/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
+++ b/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Power\Electric3Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32014A41-D98F-4B8C-90A2-8C7BBDAE8365}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13D169-8D4E-45F5-9833-2E6473C9C8CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
   </bookViews>
@@ -663,11 +663,11 @@
   <dimension ref="A1:AA138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10:U10"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
+++ b/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Power\Electric3Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13D169-8D4E-45F5-9833-2E6473C9C8CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32014A41-D98F-4B8C-90A2-8C7BBDAE8365}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
   </bookViews>
@@ -663,11 +663,11 @@
   <dimension ref="A1:AA138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
+++ b/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Power\Electric3Motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Power\Electric3Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32014A41-D98F-4B8C-90A2-8C7BBDAE8365}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D72631-9719-4484-9F44-1813912E1BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
+    <workbookView xWindow="2325" yWindow="1785" windowWidth="17280" windowHeight="10215" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>Units</t>
   </si>
@@ -85,9 +87,6 @@
   </si>
   <si>
     <t>N*m</t>
-  </si>
-  <si>
-    <t>loss</t>
   </si>
   <si>
     <t>W</t>
@@ -202,6 +201,15 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>mThermal</t>
+  </si>
+  <si>
+    <t>J/K</t>
+  </si>
+  <si>
+    <t>Tinit</t>
   </si>
 </sst>
 </file>
@@ -660,14 +668,14 @@
   <sheetPr>
     <tabColor rgb="FFCCFF66"/>
   </sheetPr>
-  <dimension ref="A1:AA138"/>
+  <dimension ref="A1:AA144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10:U10"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +806,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
@@ -809,20 +817,20 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
       </c>
       <c r="H6">
         <v>293</v>
@@ -833,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -974,7 +982,7 @@
     <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1078,11 +1086,9 @@
       <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -1669,13 +1675,13 @@
     <row r="26" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -1688,10 +1694,10 @@
       <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
         <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -1704,11 +1710,9 @@
       <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -2292,333 +2296,272 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J43">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K43">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L43">
-        <v>5000</v>
-      </c>
-      <c r="M43">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N43">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O43">
-        <v>10000</v>
-      </c>
-      <c r="P43">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q43">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R43">
-        <v>15000</v>
-      </c>
-      <c r="S43">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T43">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U43">
-        <v>20000</v>
+        <v>36</v>
+      </c>
+      <c r="H43" s="16">
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44"/>
+      <c r="B44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" s="9">
+      <c r="H44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J45">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K45">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L45">
+        <v>5000</v>
+      </c>
+      <c r="M45">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N45">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O45">
+        <v>10000</v>
+      </c>
+      <c r="P45">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q45">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R45">
+        <v>15000</v>
+      </c>
+      <c r="S45">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T45">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U45">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" s="9">
         <v>200</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I46" s="9">
         <v>200</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J46" s="9">
         <v>200</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K46" s="9">
         <v>200</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L46" s="9">
         <v>190.98589999999999</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M46" s="9">
         <v>143.23939999999999</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N46" s="9">
         <v>114.5916</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O46" s="9">
         <v>95.492999999999995</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P46" s="9">
         <v>81.851100000000002</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q46" s="9">
         <v>71.619699999999995</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R46" s="9">
         <v>63.661999999999999</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S46" s="9">
         <v>57.2958</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T46" s="9">
         <v>52.0871</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U46" s="9">
         <v>47.746499999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J46">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K46">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L46">
-        <v>5000</v>
-      </c>
-      <c r="M46">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N46">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O46">
-        <v>10000</v>
-      </c>
-      <c r="P46">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q46">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R46">
-        <v>15000</v>
-      </c>
-      <c r="S46">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T46">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U46">
-        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
+      <c r="B47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>20</v>
-      </c>
-      <c r="J47">
-        <v>40</v>
-      </c>
-      <c r="K47">
-        <v>60</v>
-      </c>
-      <c r="L47">
-        <v>80</v>
-      </c>
-      <c r="M47">
-        <v>100</v>
-      </c>
-      <c r="N47">
-        <v>120</v>
-      </c>
-      <c r="O47">
-        <v>140</v>
-      </c>
-      <c r="P47">
-        <v>160</v>
-      </c>
-      <c r="Q47">
-        <v>180</v>
-      </c>
-      <c r="R47">
-        <v>200</v>
-      </c>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C48" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>85</v>
-      </c>
-      <c r="I48" s="9">
-        <v>85</v>
-      </c>
-      <c r="J48" s="9">
-        <v>85</v>
-      </c>
-      <c r="K48" s="9">
-        <v>85</v>
-      </c>
-      <c r="L48" s="9">
-        <v>85</v>
-      </c>
-      <c r="M48" s="9">
-        <v>85</v>
-      </c>
-      <c r="N48" s="9">
-        <v>85</v>
-      </c>
-      <c r="O48" s="9">
-        <v>85</v>
-      </c>
-      <c r="P48" s="9">
-        <v>85</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>85</v>
-      </c>
-      <c r="R48" s="9">
-        <v>85</v>
-      </c>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J48">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K48">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L48">
+        <v>5000</v>
+      </c>
+      <c r="M48">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N48">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O48">
+        <v>10000</v>
+      </c>
+      <c r="P48">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q48">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R48">
+        <v>15000</v>
+      </c>
+      <c r="S48">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T48">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U48">
+        <v>20000</v>
+      </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49">
-        <v>85</v>
-      </c>
-      <c r="I49" s="9">
-        <v>85</v>
-      </c>
-      <c r="J49" s="9">
-        <v>90</v>
-      </c>
-      <c r="K49" s="9">
-        <v>90</v>
-      </c>
-      <c r="L49" s="9">
-        <v>90</v>
-      </c>
-      <c r="M49" s="9">
-        <v>90</v>
-      </c>
-      <c r="N49" s="9">
-        <v>90</v>
-      </c>
-      <c r="O49" s="9">
-        <v>90</v>
-      </c>
-      <c r="P49" s="9">
-        <v>90</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>90</v>
-      </c>
-      <c r="R49" s="9">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <v>80</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>120</v>
+      </c>
+      <c r="O49">
+        <v>140</v>
+      </c>
+      <c r="P49">
+        <v>160</v>
+      </c>
+      <c r="Q49">
+        <v>180</v>
+      </c>
+      <c r="R49">
+        <v>200</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -2627,7 +2570,9 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H50">
         <v>85</v>
       </c>
@@ -2635,31 +2580,31 @@
         <v>85</v>
       </c>
       <c r="J50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -2676,31 +2621,31 @@
         <v>85</v>
       </c>
       <c r="J51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R51" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -2717,31 +2662,31 @@
         <v>85</v>
       </c>
       <c r="J52" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -2758,31 +2703,31 @@
         <v>85</v>
       </c>
       <c r="J53" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K53" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L53" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M53" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N53" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O53" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P53" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q53" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R53" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -2808,22 +2753,22 @@
         <v>94</v>
       </c>
       <c r="M54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -2846,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="L55" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55" s="9">
         <v>95</v>
@@ -2887,7 +2832,7 @@
         <v>94</v>
       </c>
       <c r="L56" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M56" s="9">
         <v>95</v>
@@ -2928,25 +2873,25 @@
         <v>94</v>
       </c>
       <c r="L57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -2963,31 +2908,31 @@
         <v>85</v>
       </c>
       <c r="J58" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K58" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -3004,31 +2949,31 @@
         <v>85</v>
       </c>
       <c r="J59" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K59" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -3116,132 +3061,128 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
       <c r="H62">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I62" s="9">
+        <v>85</v>
+      </c>
+      <c r="J62" s="9">
+        <v>90</v>
+      </c>
+      <c r="K62" s="9">
+        <v>92</v>
+      </c>
+      <c r="L62" s="9">
+        <v>93</v>
+      </c>
+      <c r="M62" s="9">
+        <v>93</v>
+      </c>
+      <c r="N62" s="9">
+        <v>93</v>
+      </c>
+      <c r="O62" s="9">
+        <v>93</v>
+      </c>
+      <c r="P62" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>93</v>
+      </c>
+      <c r="R62" s="9">
+        <v>93</v>
+      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
+      <c r="C63" s="6"/>
       <c r="H63">
-        <v>100</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I63" s="9">
+        <v>85</v>
+      </c>
+      <c r="J63" s="9">
+        <v>90</v>
+      </c>
+      <c r="K63" s="9">
+        <v>92</v>
+      </c>
+      <c r="L63" s="9">
+        <v>93</v>
+      </c>
+      <c r="M63" s="9">
+        <v>93</v>
+      </c>
+      <c r="N63" s="9">
+        <v>93</v>
+      </c>
+      <c r="O63" s="9">
+        <v>93</v>
+      </c>
+      <c r="P63" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>93</v>
+      </c>
+      <c r="R63" s="9">
+        <v>93</v>
+      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
     </row>
     <row r="64" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C64" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64" s="16">
-        <v>90</v>
-      </c>
-      <c r="I64" s="17">
-        <v>90</v>
-      </c>
-      <c r="J64" s="17">
-        <v>90</v>
-      </c>
-      <c r="K64" s="17">
-        <v>90</v>
-      </c>
-      <c r="L64" s="17">
-        <v>90</v>
-      </c>
-      <c r="M64" s="17">
-        <v>90</v>
-      </c>
-      <c r="N64" s="17">
-        <v>90</v>
-      </c>
-      <c r="O64" s="17">
-        <v>90</v>
-      </c>
-      <c r="P64" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q64" s="17">
-        <v>90</v>
-      </c>
-      <c r="R64" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65"/>
+      <c r="C65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
-      <c r="H65" s="16">
-        <v>90</v>
-      </c>
-      <c r="I65" s="17">
-        <v>90</v>
-      </c>
-      <c r="J65" s="17">
-        <v>90</v>
-      </c>
-      <c r="K65" s="17">
-        <v>90</v>
-      </c>
-      <c r="L65" s="17">
-        <v>90</v>
-      </c>
-      <c r="M65" s="17">
-        <v>90</v>
-      </c>
-      <c r="N65" s="17">
-        <v>90</v>
-      </c>
-      <c r="O65" s="17">
-        <v>90</v>
-      </c>
-      <c r="P65" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q65" s="17">
-        <v>90</v>
-      </c>
-      <c r="R65" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
@@ -3280,7 +3221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3322,7 +3263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3364,7 +3305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3406,7 +3347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3448,7 +3389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3490,7 +3431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3532,7 +3473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3574,7 +3515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3616,7 +3557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3658,7 +3599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3700,7 +3641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3742,420 +3683,361 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" t="s">
-        <v>51</v>
-      </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J79">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K79">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L79">
-        <v>5000</v>
-      </c>
-      <c r="M79">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N79">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O79">
-        <v>10000</v>
-      </c>
-      <c r="P79">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q79">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R79">
-        <v>15000</v>
-      </c>
-      <c r="S79">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T79">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U79">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78" s="16">
+        <v>90</v>
+      </c>
+      <c r="I78" s="17">
+        <v>90</v>
+      </c>
+      <c r="J78" s="17">
+        <v>90</v>
+      </c>
+      <c r="K78" s="17">
+        <v>90</v>
+      </c>
+      <c r="L78" s="17">
+        <v>90</v>
+      </c>
+      <c r="M78" s="17">
+        <v>90</v>
+      </c>
+      <c r="N78" s="17">
+        <v>90</v>
+      </c>
+      <c r="O78" s="17">
+        <v>90</v>
+      </c>
+      <c r="P78" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q78" s="17">
+        <v>90</v>
+      </c>
+      <c r="R78" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" s="16">
+        <v>90</v>
+      </c>
+      <c r="I79" s="17">
+        <v>90</v>
+      </c>
+      <c r="J79" s="17">
+        <v>90</v>
+      </c>
+      <c r="K79" s="17">
+        <v>90</v>
+      </c>
+      <c r="L79" s="17">
+        <v>90</v>
+      </c>
+      <c r="M79" s="17">
+        <v>90</v>
+      </c>
+      <c r="N79" s="17">
+        <v>90</v>
+      </c>
+      <c r="O79" s="17">
+        <v>90</v>
+      </c>
+      <c r="P79" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>90</v>
+      </c>
+      <c r="R79" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80">
-        <v>300</v>
-      </c>
-      <c r="I80">
-        <v>300</v>
-      </c>
-      <c r="J80">
-        <v>300</v>
-      </c>
-      <c r="K80">
-        <v>300</v>
-      </c>
-      <c r="L80">
-        <v>286.47890000000001</v>
-      </c>
-      <c r="M80">
-        <v>214.85919999999999</v>
-      </c>
-      <c r="N80">
-        <v>171.88730000000001</v>
-      </c>
-      <c r="O80">
-        <v>143.23939999999999</v>
-      </c>
-      <c r="P80">
-        <v>122.77670000000001</v>
-      </c>
-      <c r="Q80">
-        <v>107.42959999999999</v>
-      </c>
-      <c r="R80">
-        <v>95.492999999999995</v>
-      </c>
-      <c r="S80">
-        <v>85.943700000000007</v>
-      </c>
-      <c r="T80">
-        <v>78.130600000000001</v>
-      </c>
-      <c r="U80">
-        <v>71.619699999999995</v>
+        <v>57</v>
+      </c>
+      <c r="H80" s="16">
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81">
-        <v>50</v>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="16">
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>13</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J82">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K82">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L82">
-        <v>5000</v>
-      </c>
-      <c r="M82">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N82">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O82">
-        <v>10000</v>
-      </c>
-      <c r="P82">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q82">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R82">
-        <v>15000</v>
-      </c>
-      <c r="S82">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T82">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U82">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>20</v>
+        <v>1666.6666666666699</v>
       </c>
       <c r="J83">
-        <v>40</v>
+        <v>3333.3333333333298</v>
       </c>
       <c r="K83">
-        <v>60</v>
+        <v>4774.6371266666702</v>
       </c>
       <c r="L83">
-        <v>80</v>
+        <v>5000</v>
       </c>
       <c r="M83">
-        <v>100</v>
+        <v>6666.6666666666697</v>
       </c>
       <c r="N83">
-        <v>120</v>
+        <v>8333.3333333333303</v>
       </c>
       <c r="O83">
-        <v>140</v>
+        <v>10000</v>
       </c>
       <c r="P83">
-        <v>160</v>
+        <v>11666.666666666602</v>
       </c>
       <c r="Q83">
-        <v>180</v>
+        <v>13333.333333333299</v>
       </c>
       <c r="R83">
-        <v>200</v>
-      </c>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
+        <v>15000</v>
+      </c>
+      <c r="S83">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T83">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U83">
+        <v>20000</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84">
-        <v>85</v>
-      </c>
-      <c r="I84" s="9">
-        <v>85</v>
-      </c>
-      <c r="J84" s="9">
-        <v>85</v>
-      </c>
-      <c r="K84" s="9">
-        <v>85</v>
-      </c>
-      <c r="L84" s="9">
-        <v>85</v>
-      </c>
-      <c r="M84" s="9">
-        <v>85</v>
-      </c>
-      <c r="N84" s="9">
-        <v>85</v>
-      </c>
-      <c r="O84" s="9">
-        <v>85</v>
-      </c>
-      <c r="P84" s="9">
-        <v>85</v>
-      </c>
-      <c r="Q84" s="9">
-        <v>85</v>
-      </c>
-      <c r="R84" s="9">
-        <v>85</v>
-      </c>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
+        <v>300</v>
+      </c>
+      <c r="I84">
+        <v>300</v>
+      </c>
+      <c r="J84">
+        <v>300</v>
+      </c>
+      <c r="K84">
+        <v>300</v>
+      </c>
+      <c r="L84">
+        <v>286.47890000000001</v>
+      </c>
+      <c r="M84">
+        <v>214.85919999999999</v>
+      </c>
+      <c r="N84">
+        <v>171.88730000000001</v>
+      </c>
+      <c r="O84">
+        <v>143.23939999999999</v>
+      </c>
+      <c r="P84">
+        <v>122.77670000000001</v>
+      </c>
+      <c r="Q84">
+        <v>107.42959999999999</v>
+      </c>
+      <c r="R84">
+        <v>95.492999999999995</v>
+      </c>
+      <c r="S84">
+        <v>85.943700000000007</v>
+      </c>
+      <c r="T84">
+        <v>78.130600000000001</v>
+      </c>
+      <c r="U84">
+        <v>71.619699999999995</v>
+      </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C85" s="6"/>
+      <c r="D85" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H85">
-        <v>85</v>
-      </c>
-      <c r="I85" s="9">
-        <v>85</v>
-      </c>
-      <c r="J85" s="9">
-        <v>90</v>
-      </c>
-      <c r="K85" s="9">
-        <v>90</v>
-      </c>
-      <c r="L85" s="9">
-        <v>90</v>
-      </c>
-      <c r="M85" s="9">
-        <v>90</v>
-      </c>
-      <c r="N85" s="9">
-        <v>90</v>
-      </c>
-      <c r="O85" s="9">
-        <v>90</v>
-      </c>
-      <c r="P85" s="9">
-        <v>90</v>
-      </c>
-      <c r="Q85" s="9">
-        <v>90</v>
-      </c>
-      <c r="R85" s="9">
-        <v>88</v>
-      </c>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86">
-        <v>85</v>
-      </c>
-      <c r="I86" s="9">
-        <v>85</v>
-      </c>
-      <c r="J86" s="9">
-        <v>92</v>
-      </c>
-      <c r="K86" s="9">
-        <v>92</v>
-      </c>
-      <c r="L86" s="9">
-        <v>92</v>
-      </c>
-      <c r="M86" s="9">
-        <v>92</v>
-      </c>
-      <c r="N86" s="9">
-        <v>92</v>
-      </c>
-      <c r="O86" s="9">
-        <v>92</v>
-      </c>
-      <c r="P86" s="9">
-        <v>92</v>
-      </c>
-      <c r="Q86" s="9">
-        <v>92</v>
-      </c>
-      <c r="R86" s="9">
-        <v>92</v>
-      </c>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J86">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K86">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L86">
+        <v>5000</v>
+      </c>
+      <c r="M86">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N86">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O86">
+        <v>10000</v>
+      </c>
+      <c r="P86">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q86">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R86">
+        <v>15000</v>
+      </c>
+      <c r="S86">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T86">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U86">
+        <v>20000</v>
+      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87">
-        <v>85</v>
-      </c>
-      <c r="I87" s="9">
-        <v>85</v>
-      </c>
-      <c r="J87" s="9">
-        <v>92</v>
-      </c>
-      <c r="K87" s="9">
-        <v>92</v>
-      </c>
-      <c r="L87" s="9">
-        <v>93</v>
-      </c>
-      <c r="M87" s="9">
-        <v>93</v>
-      </c>
-      <c r="N87" s="9">
-        <v>93</v>
-      </c>
-      <c r="O87" s="9">
-        <v>93</v>
-      </c>
-      <c r="P87" s="9">
-        <v>92</v>
-      </c>
-      <c r="Q87" s="9">
-        <v>92</v>
-      </c>
-      <c r="R87" s="9">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>20</v>
+      </c>
+      <c r="J87">
+        <v>40</v>
+      </c>
+      <c r="K87">
+        <v>60</v>
+      </c>
+      <c r="L87">
+        <v>80</v>
+      </c>
+      <c r="M87">
+        <v>100</v>
+      </c>
+      <c r="N87">
+        <v>120</v>
+      </c>
+      <c r="O87">
+        <v>140</v>
+      </c>
+      <c r="P87">
+        <v>160</v>
+      </c>
+      <c r="Q87">
+        <v>180</v>
+      </c>
+      <c r="R87">
+        <v>200</v>
       </c>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -4164,7 +4046,9 @@
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H88">
         <v>85</v>
       </c>
@@ -4172,31 +4056,31 @@
         <v>85</v>
       </c>
       <c r="J88" s="9">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Q88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -4213,31 +4097,31 @@
         <v>85</v>
       </c>
       <c r="J89" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K89" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L89" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R89" s="9">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -4254,31 +4138,31 @@
         <v>85</v>
       </c>
       <c r="J90" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K90" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L90" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -4295,31 +4179,31 @@
         <v>85</v>
       </c>
       <c r="J91" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K91" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P91" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q91" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R91" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
@@ -4342,25 +4226,25 @@
         <v>94</v>
       </c>
       <c r="L92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
@@ -4386,22 +4270,22 @@
         <v>94</v>
       </c>
       <c r="M93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
@@ -4418,31 +4302,31 @@
         <v>85</v>
       </c>
       <c r="J94" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K94" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L94" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
@@ -4459,31 +4343,31 @@
         <v>85</v>
       </c>
       <c r="J95" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K95" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
@@ -4500,31 +4384,31 @@
         <v>85</v>
       </c>
       <c r="J96" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K96" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
@@ -4541,31 +4425,31 @@
         <v>85</v>
       </c>
       <c r="J97" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K97" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
@@ -4573,201 +4457,208 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
-      <c r="B98" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="15">
-        <v>0</v>
-      </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
+      <c r="H98">
+        <v>85</v>
+      </c>
+      <c r="I98" s="9">
+        <v>85</v>
+      </c>
+      <c r="J98" s="9">
+        <v>90</v>
+      </c>
+      <c r="K98" s="9">
+        <v>92</v>
+      </c>
+      <c r="L98" s="9">
+        <v>93</v>
+      </c>
+      <c r="M98" s="9">
+        <v>93</v>
+      </c>
+      <c r="N98" s="9">
+        <v>93</v>
+      </c>
+      <c r="O98" s="9">
+        <v>93</v>
+      </c>
+      <c r="P98" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>93</v>
+      </c>
+      <c r="R98" s="9">
+        <v>93</v>
+      </c>
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
-      <c r="B99" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
       <c r="H99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I99" s="9">
+        <v>85</v>
+      </c>
+      <c r="J99" s="9">
+        <v>90</v>
+      </c>
+      <c r="K99" s="9">
+        <v>92</v>
+      </c>
+      <c r="L99" s="9">
+        <v>93</v>
+      </c>
+      <c r="M99" s="9">
+        <v>93</v>
+      </c>
+      <c r="N99" s="9">
+        <v>93</v>
+      </c>
+      <c r="O99" s="9">
+        <v>93</v>
+      </c>
+      <c r="P99" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q99" s="9">
+        <v>93</v>
+      </c>
+      <c r="R99" s="9">
+        <v>93</v>
+      </c>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
+      <c r="C100" s="6"/>
       <c r="H100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I100" s="9">
+        <v>85</v>
+      </c>
+      <c r="J100" s="9">
+        <v>90</v>
+      </c>
+      <c r="K100" s="9">
+        <v>92</v>
+      </c>
+      <c r="L100" s="9">
+        <v>93</v>
+      </c>
+      <c r="M100" s="9">
+        <v>93</v>
+      </c>
+      <c r="N100" s="9">
+        <v>93</v>
+      </c>
+      <c r="O100" s="9">
+        <v>93</v>
+      </c>
+      <c r="P100" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>93</v>
+      </c>
+      <c r="R100" s="9">
+        <v>93</v>
+      </c>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101" s="16">
-        <v>90</v>
-      </c>
-      <c r="I101" s="17">
-        <v>90</v>
-      </c>
-      <c r="J101" s="17">
-        <v>90</v>
-      </c>
-      <c r="K101" s="17">
-        <v>90</v>
-      </c>
-      <c r="L101" s="17">
-        <v>90</v>
-      </c>
-      <c r="M101" s="17">
-        <v>90</v>
-      </c>
-      <c r="N101" s="17">
-        <v>90</v>
-      </c>
-      <c r="O101" s="17">
-        <v>90</v>
-      </c>
-      <c r="P101" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q101" s="17">
-        <v>90</v>
-      </c>
-      <c r="R101" s="17">
-        <v>90</v>
-      </c>
+      <c r="C101" s="6"/>
+      <c r="H101">
+        <v>85</v>
+      </c>
+      <c r="I101" s="9">
+        <v>85</v>
+      </c>
+      <c r="J101" s="9">
+        <v>90</v>
+      </c>
+      <c r="K101" s="9">
+        <v>92</v>
+      </c>
+      <c r="L101" s="9">
+        <v>93</v>
+      </c>
+      <c r="M101" s="9">
+        <v>93</v>
+      </c>
+      <c r="N101" s="9">
+        <v>93</v>
+      </c>
+      <c r="O101" s="9">
+        <v>93</v>
+      </c>
+      <c r="P101" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q101" s="9">
+        <v>93</v>
+      </c>
+      <c r="R101" s="9">
+        <v>93</v>
+      </c>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
     </row>
     <row r="102" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102"/>
+      <c r="B102" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" t="s">
+        <v>49</v>
+      </c>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102"/>
-      <c r="H102" s="16">
-        <v>90</v>
-      </c>
-      <c r="I102" s="17">
-        <v>90</v>
-      </c>
-      <c r="J102" s="17">
-        <v>90</v>
-      </c>
-      <c r="K102" s="17">
-        <v>90</v>
-      </c>
-      <c r="L102" s="17">
-        <v>90</v>
-      </c>
-      <c r="M102" s="17">
-        <v>90</v>
-      </c>
-      <c r="N102" s="17">
-        <v>90</v>
-      </c>
-      <c r="O102" s="17">
-        <v>90</v>
-      </c>
-      <c r="P102" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q102" s="17">
-        <v>90</v>
-      </c>
-      <c r="R102" s="17">
-        <v>90</v>
+      <c r="H102">
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103"/>
+      <c r="C103" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
+        <v>49</v>
+      </c>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103"/>
-      <c r="H103" s="16">
-        <v>90</v>
-      </c>
-      <c r="I103" s="17">
-        <v>90</v>
-      </c>
-      <c r="J103" s="17">
-        <v>90</v>
-      </c>
-      <c r="K103" s="17">
-        <v>90</v>
-      </c>
-      <c r="L103" s="17">
-        <v>90</v>
-      </c>
-      <c r="M103" s="17">
-        <v>90</v>
-      </c>
-      <c r="N103" s="17">
-        <v>90</v>
-      </c>
-      <c r="O103" s="17">
-        <v>90</v>
-      </c>
-      <c r="P103" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q103" s="17">
-        <v>90</v>
-      </c>
-      <c r="R103" s="17">
-        <v>90</v>
+      <c r="H103">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -5142,7 +5033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -5184,7 +5075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -5226,379 +5117,393 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+    <row r="115" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115" s="16">
+        <v>90</v>
+      </c>
+      <c r="I115" s="17">
+        <v>90</v>
+      </c>
+      <c r="J115" s="17">
+        <v>90</v>
+      </c>
+      <c r="K115" s="17">
+        <v>90</v>
+      </c>
+      <c r="L115" s="17">
+        <v>90</v>
+      </c>
+      <c r="M115" s="17">
+        <v>90</v>
+      </c>
+      <c r="N115" s="17">
+        <v>90</v>
+      </c>
+      <c r="O115" s="17">
+        <v>90</v>
+      </c>
+      <c r="P115" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q115" s="17">
+        <v>90</v>
+      </c>
+      <c r="R115" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116" s="16">
+        <v>90</v>
+      </c>
+      <c r="I116" s="17">
+        <v>90</v>
+      </c>
+      <c r="J116" s="17">
+        <v>90</v>
+      </c>
+      <c r="K116" s="17">
+        <v>90</v>
+      </c>
+      <c r="L116" s="17">
+        <v>90</v>
+      </c>
+      <c r="M116" s="17">
+        <v>90</v>
+      </c>
+      <c r="N116" s="17">
+        <v>90</v>
+      </c>
+      <c r="O116" s="17">
+        <v>90</v>
+      </c>
+      <c r="P116" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q116" s="17">
+        <v>90</v>
+      </c>
+      <c r="R116" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117" s="16">
+        <v>90</v>
+      </c>
+      <c r="I117" s="17">
+        <v>90</v>
+      </c>
+      <c r="J117" s="17">
+        <v>90</v>
+      </c>
+      <c r="K117" s="17">
+        <v>90</v>
+      </c>
+      <c r="L117" s="17">
+        <v>90</v>
+      </c>
+      <c r="M117" s="17">
+        <v>90</v>
+      </c>
+      <c r="N117" s="17">
+        <v>90</v>
+      </c>
+      <c r="O117" s="17">
+        <v>90</v>
+      </c>
+      <c r="P117" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q117" s="17">
+        <v>90</v>
+      </c>
+      <c r="R117" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
+        <v>57</v>
+      </c>
+      <c r="H118" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="15">
+        <v>0</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C121" s="6"/>
+      <c r="D121" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" t="s">
+      <c r="H121">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H115">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="6" t="s">
+      <c r="C123" s="6"/>
+      <c r="D123" t="s">
         <v>29</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" t="s">
+      <c r="H123">
+        <f>H122/H121*100</f>
+        <v>9230.7692307692305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H117">
-        <f>H116/H115*100</f>
-        <v>9230.7692307692305</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="H118">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0.2</v>
-      </c>
-      <c r="J120">
-        <v>0.4</v>
-      </c>
-      <c r="K120">
-        <v>0.6</v>
-      </c>
-      <c r="L120">
-        <v>0.8</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" t="s">
-        <v>37</v>
-      </c>
-      <c r="H121">
-        <v>243.1</v>
-      </c>
-      <c r="I121">
-        <v>253.1</v>
-      </c>
-      <c r="J121">
-        <v>263.10000000000002</v>
-      </c>
-      <c r="K121">
-        <v>273.10000000000002</v>
-      </c>
-      <c r="L121">
-        <v>283.10000000000002</v>
-      </c>
-      <c r="M121">
-        <v>298.10000000000002</v>
-      </c>
-      <c r="N121">
-        <v>313.10000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122">
-        <v>201.6</v>
-      </c>
-      <c r="I122">
-        <v>201.6</v>
-      </c>
-      <c r="J122">
-        <v>201.6</v>
-      </c>
-      <c r="K122">
-        <v>201.6</v>
-      </c>
-      <c r="L122">
-        <v>201.6</v>
-      </c>
-      <c r="M122">
-        <v>201.6</v>
-      </c>
-      <c r="N122">
-        <v>201.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="H123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="I123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="J123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="K123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="L123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="M123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="N123">
-        <v>258.76799999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="H124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="I124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="J124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="K124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="L124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="M124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="N124">
-        <v>264.95999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C125" s="6"/>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
       <c r="H125">
-        <v>272.952</v>
-      </c>
-      <c r="I125">
-        <v>272.952</v>
-      </c>
-      <c r="J125">
-        <v>272.952</v>
-      </c>
-      <c r="K125">
-        <v>272.952</v>
-      </c>
-      <c r="L125">
-        <v>272.952</v>
-      </c>
-      <c r="M125">
-        <v>272.952</v>
-      </c>
-      <c r="N125">
-        <v>272.952</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H126">
-        <v>286.12799999999999</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>286.12799999999999</v>
+        <v>0.2</v>
       </c>
       <c r="J126">
-        <v>286.12799999999999</v>
+        <v>0.4</v>
       </c>
       <c r="K126">
-        <v>286.12799999999999</v>
+        <v>0.6</v>
       </c>
       <c r="L126">
-        <v>286.12799999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M126">
-        <v>286.12799999999999</v>
-      </c>
-      <c r="N126">
-        <v>286.12799999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" t="s">
+        <v>36</v>
+      </c>
       <c r="H127">
-        <v>303.91199999999998</v>
+        <v>243.1</v>
       </c>
       <c r="I127">
-        <v>303.91199999999998</v>
+        <v>253.1</v>
       </c>
       <c r="J127">
-        <v>303.91199999999998</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="K127">
-        <v>303.91199999999998</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L127">
-        <v>303.91199999999998</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="M127">
-        <v>303.91199999999998</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="N127">
-        <v>303.91199999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+        <v>313.10000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
-      <c r="B128" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="I128">
-        <v>0.2</v>
+        <v>201.6</v>
       </c>
       <c r="J128">
-        <v>0.4</v>
+        <v>201.6</v>
       </c>
       <c r="K128">
-        <v>0.6</v>
+        <v>201.6</v>
       </c>
       <c r="L128">
-        <v>0.8</v>
+        <v>201.6</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>201.6</v>
+      </c>
+      <c r="N128">
+        <v>201.6</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" t="s">
-        <v>37</v>
-      </c>
+      <c r="C129" s="6"/>
       <c r="H129">
-        <v>243.1</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="I129">
-        <v>253.1</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="J129">
-        <v>263.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="K129">
-        <v>273.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="L129">
-        <v>283.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="M129">
-        <v>298.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="N129">
-        <v>313.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" t="s">
-        <v>41</v>
-      </c>
+      <c r="C130" s="6"/>
       <c r="H130">
-        <v>0.31845600000000002</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="I130">
-        <v>0.23000399999999999</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="J130">
-        <v>0.15710399999999999</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="K130">
-        <v>7.3116E-2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="L130">
-        <v>5.1948000000000001E-2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="M130">
-        <v>2.0170799999999999E-2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="N130">
-        <v>3.7007999999999999E-2</v>
+        <v>264.95999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -5606,25 +5511,25 @@
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="H131">
-        <v>0.335484</v>
+        <v>272.952</v>
       </c>
       <c r="I131">
-        <v>0.23594399999999999</v>
+        <v>272.952</v>
       </c>
       <c r="J131">
-        <v>0.14763599999999999</v>
+        <v>272.952</v>
       </c>
       <c r="K131">
-        <v>9.2268000000000003E-2</v>
+        <v>272.952</v>
       </c>
       <c r="L131">
-        <v>6.5699999999999995E-2</v>
+        <v>272.952</v>
       </c>
       <c r="M131">
-        <v>2.58912E-2</v>
+        <v>272.952</v>
       </c>
       <c r="N131">
-        <v>4.8168000000000002E-2</v>
+        <v>272.952</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -5632,25 +5537,25 @@
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="H132">
-        <v>0.32497199999999998</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="I132">
-        <v>0.199908</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="J132">
-        <v>0.14616000000000001</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="K132">
-        <v>9.1151999999999997E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="L132">
-        <v>6.4619999999999997E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="M132">
-        <v>2.4793200000000001E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="N132">
-        <v>3.5999999999999997E-2</v>
+        <v>286.12799999999999</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -5658,153 +5563,320 @@
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="H133">
-        <v>0.30492000000000002</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="I133">
-        <v>0.19889999999999999</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="J133">
-        <v>0.12427199999999999</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="K133">
-        <v>8.856E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="L133">
-        <v>6.4007999999999995E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="M133">
-        <v>2.7205199999999999E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="N133">
-        <v>5.5295999999999998E-2</v>
+        <v>303.91199999999998</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H134">
-        <v>0.37152000000000002</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0.21754799999999999</v>
+        <v>0.2</v>
       </c>
       <c r="J134">
-        <v>0.138456</v>
+        <v>0.4</v>
       </c>
       <c r="K134">
-        <v>9.7776000000000002E-2</v>
+        <v>0.6</v>
       </c>
       <c r="L134">
-        <v>6.9264000000000006E-2</v>
+        <v>0.8</v>
       </c>
       <c r="M134">
-        <v>2.6478000000000002E-2</v>
-      </c>
-      <c r="N134">
-        <v>5.5655999999999997E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
       <c r="H135">
-        <v>0.47304000000000002</v>
+        <v>243.1</v>
       </c>
       <c r="I135">
-        <v>0.28098000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="J135">
-        <v>0.16261200000000001</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="K135">
-        <v>0.109692</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L135">
-        <v>8.0423999999999995E-2</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="M135">
-        <v>3.6504000000000002E-2</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="N135">
-        <v>0.10040399999999999</v>
+        <v>313.10000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
-      <c r="B136" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>243.1</v>
+        <v>0.31845600000000002</v>
       </c>
       <c r="I136">
-        <v>253.1</v>
+        <v>0.23000399999999999</v>
       </c>
       <c r="J136">
-        <v>263.10000000000002</v>
+        <v>0.15710399999999999</v>
       </c>
       <c r="K136">
-        <v>273.10000000000002</v>
+        <v>7.3116E-2</v>
       </c>
       <c r="L136">
-        <v>283.10000000000002</v>
+        <v>5.1948000000000001E-2</v>
       </c>
       <c r="M136">
-        <v>298.10000000000002</v>
+        <v>2.0170799999999999E-2</v>
       </c>
       <c r="N136">
-        <v>313.10000000000002</v>
+        <v>3.7007999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" t="s">
-        <v>42</v>
-      </c>
+      <c r="C137" s="6"/>
       <c r="H137">
-        <v>230</v>
+        <v>0.335484</v>
       </c>
       <c r="I137">
-        <v>230</v>
+        <v>0.23594399999999999</v>
       </c>
       <c r="J137">
-        <v>230</v>
+        <v>0.14763599999999999</v>
       </c>
       <c r="K137">
-        <v>230</v>
+        <v>9.2268000000000003E-2</v>
       </c>
       <c r="L137">
-        <v>230</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="M137">
-        <v>230</v>
+        <v>2.58912E-2</v>
       </c>
       <c r="N137">
-        <v>230</v>
+        <v>4.8168000000000002E-2</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="H138">
+        <v>0.32497199999999998</v>
+      </c>
+      <c r="I138">
+        <v>0.199908</v>
+      </c>
+      <c r="J138">
+        <v>0.14616000000000001</v>
+      </c>
+      <c r="K138">
+        <v>9.1151999999999997E-2</v>
+      </c>
+      <c r="L138">
+        <v>6.4619999999999997E-2</v>
+      </c>
+      <c r="M138">
+        <v>2.4793200000000001E-2</v>
+      </c>
+      <c r="N138">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="H139">
+        <v>0.30492000000000002</v>
+      </c>
+      <c r="I139">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="J139">
+        <v>0.12427199999999999</v>
+      </c>
+      <c r="K139">
+        <v>8.856E-2</v>
+      </c>
+      <c r="L139">
+        <v>6.4007999999999995E-2</v>
+      </c>
+      <c r="M139">
+        <v>2.7205199999999999E-2</v>
+      </c>
+      <c r="N139">
+        <v>5.5295999999999998E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="H140">
+        <v>0.37152000000000002</v>
+      </c>
+      <c r="I140">
+        <v>0.21754799999999999</v>
+      </c>
+      <c r="J140">
+        <v>0.138456</v>
+      </c>
+      <c r="K140">
+        <v>9.7776000000000002E-2</v>
+      </c>
+      <c r="L140">
+        <v>6.9264000000000006E-2</v>
+      </c>
+      <c r="M140">
+        <v>2.6478000000000002E-2</v>
+      </c>
+      <c r="N140">
+        <v>5.5655999999999997E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="H141">
+        <v>0.47304000000000002</v>
+      </c>
+      <c r="I141">
+        <v>0.28098000000000001</v>
+      </c>
+      <c r="J141">
+        <v>0.16261200000000001</v>
+      </c>
+      <c r="K141">
+        <v>0.109692</v>
+      </c>
+      <c r="L141">
+        <v>8.0423999999999995E-2</v>
+      </c>
+      <c r="M141">
+        <v>3.6504000000000002E-2</v>
+      </c>
+      <c r="N141">
+        <v>0.10040399999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142">
+        <v>243.1</v>
+      </c>
+      <c r="I142">
+        <v>253.1</v>
+      </c>
+      <c r="J142">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="K142">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="L142">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="M142">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="N142">
+        <v>313.10000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+      <c r="H143">
+        <v>230</v>
+      </c>
+      <c r="I143">
+        <v>230</v>
+      </c>
+      <c r="J143">
+        <v>230</v>
+      </c>
+      <c r="K143">
+        <v>230</v>
+      </c>
+      <c r="L143">
+        <v>230</v>
+      </c>
+      <c r="M143">
+        <v>230</v>
+      </c>
+      <c r="N143">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" t="s">
-        <v>46</v>
-      </c>
-      <c r="H138">
+      <c r="H144">
         <v>0.8</v>
       </c>
     </row>
@@ -5819,12 +5891,12 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B47">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+  <conditionalFormatting sqref="B85">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
+++ b/Libraries/Vehicle/Power/Electric3Motor/sm_car_data_Power_Electric3Motor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\simscape\demos\allsimscape\cars\vehicle-templates\Libraries\Vehicle\Power\Electric3Motor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Power\Electric3Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D13D169-8D4E-45F5-9833-2E6473C9C8CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D72631-9719-4484-9F44-1813912E1BE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
+    <workbookView xWindow="2325" yWindow="1785" windowWidth="17280" windowHeight="10215" xr2:uid="{3EB3AC41-B7D3-4E4D-A710-77CB91E8EAF9}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
   <si>
     <t>Units</t>
   </si>
@@ -85,9 +87,6 @@
   </si>
   <si>
     <t>N*m</t>
-  </si>
-  <si>
-    <t>loss</t>
   </si>
   <si>
     <t>W</t>
@@ -202,6 +201,15 @@
   </si>
   <si>
     <t>Temperature</t>
+  </si>
+  <si>
+    <t>mThermal</t>
+  </si>
+  <si>
+    <t>J/K</t>
+  </si>
+  <si>
+    <t>Tinit</t>
   </si>
 </sst>
 </file>
@@ -660,14 +668,14 @@
   <sheetPr>
     <tabColor rgb="FFCCFF66"/>
   </sheetPr>
-  <dimension ref="A1:AA138"/>
+  <dimension ref="A1:AA144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +806,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>8</v>
@@ -809,20 +817,20 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>56</v>
       </c>
       <c r="H6">
         <v>293</v>
@@ -833,7 +841,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>16</v>
@@ -974,7 +982,7 @@
     <row r="10" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>16</v>
@@ -1078,11 +1086,9 @@
       <c r="A12" s="13"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -1669,13 +1675,13 @@
     <row r="26" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -1688,10 +1694,10 @@
       <c r="A27" s="13"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" t="s">
         <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>50</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -1704,11 +1710,9 @@
       <c r="A28" s="13"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D28"/>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -2292,333 +2296,272 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J43">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K43">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L43">
-        <v>5000</v>
-      </c>
-      <c r="M43">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N43">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O43">
-        <v>10000</v>
-      </c>
-      <c r="P43">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q43">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R43">
-        <v>15000</v>
-      </c>
-      <c r="S43">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T43">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U43">
-        <v>20000</v>
+        <v>36</v>
+      </c>
+      <c r="H43" s="16">
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44"/>
+      <c r="B44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
       <c r="F44"/>
       <c r="G44"/>
-      <c r="H44" s="9">
+      <c r="H44" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J45">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K45">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L45">
+        <v>5000</v>
+      </c>
+      <c r="M45">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N45">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O45">
+        <v>10000</v>
+      </c>
+      <c r="P45">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q45">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R45">
+        <v>15000</v>
+      </c>
+      <c r="S45">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T45">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U45">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46" s="9">
         <v>200</v>
       </c>
-      <c r="I44" s="9">
+      <c r="I46" s="9">
         <v>200</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J46" s="9">
         <v>200</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K46" s="9">
         <v>200</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L46" s="9">
         <v>190.98589999999999</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M46" s="9">
         <v>143.23939999999999</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N46" s="9">
         <v>114.5916</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O46" s="9">
         <v>95.492999999999995</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P46" s="9">
         <v>81.851100000000002</v>
       </c>
-      <c r="Q44" s="9">
+      <c r="Q46" s="9">
         <v>71.619699999999995</v>
       </c>
-      <c r="R44" s="9">
+      <c r="R46" s="9">
         <v>63.661999999999999</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S46" s="9">
         <v>57.2958</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T46" s="9">
         <v>52.0871</v>
       </c>
-      <c r="U44" s="9">
+      <c r="U46" s="9">
         <v>47.746499999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
-      <c r="B46" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J46">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K46">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L46">
-        <v>5000</v>
-      </c>
-      <c r="M46">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N46">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O46">
-        <v>10000</v>
-      </c>
-      <c r="P46">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q46">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R46">
-        <v>15000</v>
-      </c>
-      <c r="S46">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T46">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U46">
-        <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
+      <c r="B47" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>20</v>
-      </c>
-      <c r="J47">
-        <v>40</v>
-      </c>
-      <c r="K47">
-        <v>60</v>
-      </c>
-      <c r="L47">
-        <v>80</v>
-      </c>
-      <c r="M47">
-        <v>100</v>
-      </c>
-      <c r="N47">
-        <v>120</v>
-      </c>
-      <c r="O47">
-        <v>140</v>
-      </c>
-      <c r="P47">
-        <v>160</v>
-      </c>
-      <c r="Q47">
-        <v>180</v>
-      </c>
-      <c r="R47">
-        <v>200</v>
-      </c>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="U47" s="9"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C48" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H48">
-        <v>85</v>
-      </c>
-      <c r="I48" s="9">
-        <v>85</v>
-      </c>
-      <c r="J48" s="9">
-        <v>85</v>
-      </c>
-      <c r="K48" s="9">
-        <v>85</v>
-      </c>
-      <c r="L48" s="9">
-        <v>85</v>
-      </c>
-      <c r="M48" s="9">
-        <v>85</v>
-      </c>
-      <c r="N48" s="9">
-        <v>85</v>
-      </c>
-      <c r="O48" s="9">
-        <v>85</v>
-      </c>
-      <c r="P48" s="9">
-        <v>85</v>
-      </c>
-      <c r="Q48" s="9">
-        <v>85</v>
-      </c>
-      <c r="R48" s="9">
-        <v>85</v>
-      </c>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J48">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K48">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L48">
+        <v>5000</v>
+      </c>
+      <c r="M48">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N48">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O48">
+        <v>10000</v>
+      </c>
+      <c r="P48">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q48">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R48">
+        <v>15000</v>
+      </c>
+      <c r="S48">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T48">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U48">
+        <v>20000</v>
+      </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49">
-        <v>85</v>
-      </c>
-      <c r="I49" s="9">
-        <v>85</v>
-      </c>
-      <c r="J49" s="9">
-        <v>90</v>
-      </c>
-      <c r="K49" s="9">
-        <v>90</v>
-      </c>
-      <c r="L49" s="9">
-        <v>90</v>
-      </c>
-      <c r="M49" s="9">
-        <v>90</v>
-      </c>
-      <c r="N49" s="9">
-        <v>90</v>
-      </c>
-      <c r="O49" s="9">
-        <v>90</v>
-      </c>
-      <c r="P49" s="9">
-        <v>90</v>
-      </c>
-      <c r="Q49" s="9">
-        <v>90</v>
-      </c>
-      <c r="R49" s="9">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>40</v>
+      </c>
+      <c r="K49">
+        <v>60</v>
+      </c>
+      <c r="L49">
+        <v>80</v>
+      </c>
+      <c r="M49">
+        <v>100</v>
+      </c>
+      <c r="N49">
+        <v>120</v>
+      </c>
+      <c r="O49">
+        <v>140</v>
+      </c>
+      <c r="P49">
+        <v>160</v>
+      </c>
+      <c r="Q49">
+        <v>180</v>
+      </c>
+      <c r="R49">
+        <v>200</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -2627,7 +2570,9 @@
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H50">
         <v>85</v>
       </c>
@@ -2635,31 +2580,31 @@
         <v>85</v>
       </c>
       <c r="J50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="N50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="P50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="R50" s="9">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -2676,31 +2621,31 @@
         <v>85</v>
       </c>
       <c r="J51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O51" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="P51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q51" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R51" s="9">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="S51" s="9"/>
       <c r="T51" s="9"/>
@@ -2717,31 +2662,31 @@
         <v>85</v>
       </c>
       <c r="J52" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="R52" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -2758,31 +2703,31 @@
         <v>85</v>
       </c>
       <c r="J53" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K53" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L53" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M53" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N53" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O53" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P53" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q53" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R53" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S53" s="9"/>
       <c r="T53" s="9"/>
@@ -2808,22 +2753,22 @@
         <v>94</v>
       </c>
       <c r="M54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R54" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -2846,7 +2791,7 @@
         <v>94</v>
       </c>
       <c r="L55" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M55" s="9">
         <v>95</v>
@@ -2887,7 +2832,7 @@
         <v>94</v>
       </c>
       <c r="L56" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M56" s="9">
         <v>95</v>
@@ -2928,25 +2873,25 @@
         <v>94</v>
       </c>
       <c r="L57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R57" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S57" s="9"/>
       <c r="T57" s="9"/>
@@ -2963,31 +2908,31 @@
         <v>85</v>
       </c>
       <c r="J58" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K58" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R58" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -3004,31 +2949,31 @@
         <v>85</v>
       </c>
       <c r="J59" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K59" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R59" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S59" s="9"/>
       <c r="T59" s="9"/>
@@ -3116,132 +3061,128 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
     </row>
-    <row r="62" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
       <c r="H62">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I62" s="9">
+        <v>85</v>
+      </c>
+      <c r="J62" s="9">
+        <v>90</v>
+      </c>
+      <c r="K62" s="9">
+        <v>92</v>
+      </c>
+      <c r="L62" s="9">
+        <v>93</v>
+      </c>
+      <c r="M62" s="9">
+        <v>93</v>
+      </c>
+      <c r="N62" s="9">
+        <v>93</v>
+      </c>
+      <c r="O62" s="9">
+        <v>93</v>
+      </c>
+      <c r="P62" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>93</v>
+      </c>
+      <c r="R62" s="9">
+        <v>93</v>
+      </c>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
+      <c r="C63" s="6"/>
       <c r="H63">
-        <v>100</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I63" s="9">
+        <v>85</v>
+      </c>
+      <c r="J63" s="9">
+        <v>90</v>
+      </c>
+      <c r="K63" s="9">
+        <v>92</v>
+      </c>
+      <c r="L63" s="9">
+        <v>93</v>
+      </c>
+      <c r="M63" s="9">
+        <v>93</v>
+      </c>
+      <c r="N63" s="9">
+        <v>93</v>
+      </c>
+      <c r="O63" s="9">
+        <v>93</v>
+      </c>
+      <c r="P63" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>93</v>
+      </c>
+      <c r="R63" s="9">
+        <v>93</v>
+      </c>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
     </row>
     <row r="64" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="C64" s="6" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
-      <c r="H64" s="16">
-        <v>90</v>
-      </c>
-      <c r="I64" s="17">
-        <v>90</v>
-      </c>
-      <c r="J64" s="17">
-        <v>90</v>
-      </c>
-      <c r="K64" s="17">
-        <v>90</v>
-      </c>
-      <c r="L64" s="17">
-        <v>90</v>
-      </c>
-      <c r="M64" s="17">
-        <v>90</v>
-      </c>
-      <c r="N64" s="17">
-        <v>90</v>
-      </c>
-      <c r="O64" s="17">
-        <v>90</v>
-      </c>
-      <c r="P64" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q64" s="17">
-        <v>90</v>
-      </c>
-      <c r="R64" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65"/>
+      <c r="C65" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" t="s">
+        <v>49</v>
+      </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
-      <c r="H65" s="16">
-        <v>90</v>
-      </c>
-      <c r="I65" s="17">
-        <v>90</v>
-      </c>
-      <c r="J65" s="17">
-        <v>90</v>
-      </c>
-      <c r="K65" s="17">
-        <v>90</v>
-      </c>
-      <c r="L65" s="17">
-        <v>90</v>
-      </c>
-      <c r="M65" s="17">
-        <v>90</v>
-      </c>
-      <c r="N65" s="17">
-        <v>90</v>
-      </c>
-      <c r="O65" s="17">
-        <v>90</v>
-      </c>
-      <c r="P65" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q65" s="17">
-        <v>90</v>
-      </c>
-      <c r="R65" s="17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66"/>
@@ -3280,7 +3221,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -3322,7 +3263,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -3364,7 +3305,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -3406,7 +3347,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -3448,7 +3389,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -3490,7 +3431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -3532,7 +3473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -3574,7 +3515,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -3616,7 +3557,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -3658,7 +3599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -3700,7 +3641,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -3742,420 +3683,361 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B78" s="6"/>
       <c r="C78" s="6"/>
-      <c r="D78" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" t="s">
-        <v>51</v>
-      </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="9"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J79">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K79">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L79">
-        <v>5000</v>
-      </c>
-      <c r="M79">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N79">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O79">
-        <v>10000</v>
-      </c>
-      <c r="P79">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q79">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R79">
-        <v>15000</v>
-      </c>
-      <c r="S79">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T79">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U79">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78" s="16">
+        <v>90</v>
+      </c>
+      <c r="I78" s="17">
+        <v>90</v>
+      </c>
+      <c r="J78" s="17">
+        <v>90</v>
+      </c>
+      <c r="K78" s="17">
+        <v>90</v>
+      </c>
+      <c r="L78" s="17">
+        <v>90</v>
+      </c>
+      <c r="M78" s="17">
+        <v>90</v>
+      </c>
+      <c r="N78" s="17">
+        <v>90</v>
+      </c>
+      <c r="O78" s="17">
+        <v>90</v>
+      </c>
+      <c r="P78" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q78" s="17">
+        <v>90</v>
+      </c>
+      <c r="R78" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79" s="16">
+        <v>90</v>
+      </c>
+      <c r="I79" s="17">
+        <v>90</v>
+      </c>
+      <c r="J79" s="17">
+        <v>90</v>
+      </c>
+      <c r="K79" s="17">
+        <v>90</v>
+      </c>
+      <c r="L79" s="17">
+        <v>90</v>
+      </c>
+      <c r="M79" s="17">
+        <v>90</v>
+      </c>
+      <c r="N79" s="17">
+        <v>90</v>
+      </c>
+      <c r="O79" s="17">
+        <v>90</v>
+      </c>
+      <c r="P79" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>90</v>
+      </c>
+      <c r="R79" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
-      </c>
-      <c r="H80">
-        <v>300</v>
-      </c>
-      <c r="I80">
-        <v>300</v>
-      </c>
-      <c r="J80">
-        <v>300</v>
-      </c>
-      <c r="K80">
-        <v>300</v>
-      </c>
-      <c r="L80">
-        <v>286.47890000000001</v>
-      </c>
-      <c r="M80">
-        <v>214.85919999999999</v>
-      </c>
-      <c r="N80">
-        <v>171.88730000000001</v>
-      </c>
-      <c r="O80">
-        <v>143.23939999999999</v>
-      </c>
-      <c r="P80">
-        <v>122.77670000000001</v>
-      </c>
-      <c r="Q80">
-        <v>107.42959999999999</v>
-      </c>
-      <c r="R80">
-        <v>95.492999999999995</v>
-      </c>
-      <c r="S80">
-        <v>85.943700000000007</v>
-      </c>
-      <c r="T80">
-        <v>78.130600000000001</v>
-      </c>
-      <c r="U80">
-        <v>71.619699999999995</v>
+        <v>57</v>
+      </c>
+      <c r="H80" s="16">
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81">
-        <v>50</v>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
+        <v>36</v>
+      </c>
+      <c r="H81" s="16">
+        <v>300</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C82" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" s="15">
+        <v>0</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>13</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>1666.6666666666699</v>
-      </c>
-      <c r="J82">
-        <v>3333.3333333333298</v>
-      </c>
-      <c r="K82">
-        <v>4774.6371266666702</v>
-      </c>
-      <c r="L82">
-        <v>5000</v>
-      </c>
-      <c r="M82">
-        <v>6666.6666666666697</v>
-      </c>
-      <c r="N82">
-        <v>8333.3333333333303</v>
-      </c>
-      <c r="O82">
-        <v>10000</v>
-      </c>
-      <c r="P82">
-        <v>11666.666666666602</v>
-      </c>
-      <c r="Q82">
-        <v>13333.333333333299</v>
-      </c>
-      <c r="R82">
-        <v>15000</v>
-      </c>
-      <c r="S82">
-        <v>16666.666666666602</v>
-      </c>
-      <c r="T82">
-        <v>18333.333333333299</v>
-      </c>
-      <c r="U82">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83">
-        <v>20</v>
+        <v>1666.6666666666699</v>
       </c>
       <c r="J83">
-        <v>40</v>
+        <v>3333.3333333333298</v>
       </c>
       <c r="K83">
-        <v>60</v>
+        <v>4774.6371266666702</v>
       </c>
       <c r="L83">
-        <v>80</v>
+        <v>5000</v>
       </c>
       <c r="M83">
-        <v>100</v>
+        <v>6666.6666666666697</v>
       </c>
       <c r="N83">
-        <v>120</v>
+        <v>8333.3333333333303</v>
       </c>
       <c r="O83">
-        <v>140</v>
+        <v>10000</v>
       </c>
       <c r="P83">
-        <v>160</v>
+        <v>11666.666666666602</v>
       </c>
       <c r="Q83">
-        <v>180</v>
+        <v>13333.333333333299</v>
       </c>
       <c r="R83">
-        <v>200</v>
-      </c>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
+        <v>15000</v>
+      </c>
+      <c r="S83">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T83">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U83">
+        <v>20000</v>
+      </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H84">
-        <v>85</v>
-      </c>
-      <c r="I84" s="9">
-        <v>85</v>
-      </c>
-      <c r="J84" s="9">
-        <v>85</v>
-      </c>
-      <c r="K84" s="9">
-        <v>85</v>
-      </c>
-      <c r="L84" s="9">
-        <v>85</v>
-      </c>
-      <c r="M84" s="9">
-        <v>85</v>
-      </c>
-      <c r="N84" s="9">
-        <v>85</v>
-      </c>
-      <c r="O84" s="9">
-        <v>85</v>
-      </c>
-      <c r="P84" s="9">
-        <v>85</v>
-      </c>
-      <c r="Q84" s="9">
-        <v>85</v>
-      </c>
-      <c r="R84" s="9">
-        <v>85</v>
-      </c>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
+        <v>300</v>
+      </c>
+      <c r="I84">
+        <v>300</v>
+      </c>
+      <c r="J84">
+        <v>300</v>
+      </c>
+      <c r="K84">
+        <v>300</v>
+      </c>
+      <c r="L84">
+        <v>286.47890000000001</v>
+      </c>
+      <c r="M84">
+        <v>214.85919999999999</v>
+      </c>
+      <c r="N84">
+        <v>171.88730000000001</v>
+      </c>
+      <c r="O84">
+        <v>143.23939999999999</v>
+      </c>
+      <c r="P84">
+        <v>122.77670000000001</v>
+      </c>
+      <c r="Q84">
+        <v>107.42959999999999</v>
+      </c>
+      <c r="R84">
+        <v>95.492999999999995</v>
+      </c>
+      <c r="S84">
+        <v>85.943700000000007</v>
+      </c>
+      <c r="T84">
+        <v>78.130600000000001</v>
+      </c>
+      <c r="U84">
+        <v>71.619699999999995</v>
+      </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C85" s="6"/>
+      <c r="D85" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H85">
-        <v>85</v>
-      </c>
-      <c r="I85" s="9">
-        <v>85</v>
-      </c>
-      <c r="J85" s="9">
-        <v>90</v>
-      </c>
-      <c r="K85" s="9">
-        <v>90</v>
-      </c>
-      <c r="L85" s="9">
-        <v>90</v>
-      </c>
-      <c r="M85" s="9">
-        <v>90</v>
-      </c>
-      <c r="N85" s="9">
-        <v>90</v>
-      </c>
-      <c r="O85" s="9">
-        <v>90</v>
-      </c>
-      <c r="P85" s="9">
-        <v>90</v>
-      </c>
-      <c r="Q85" s="9">
-        <v>90</v>
-      </c>
-      <c r="R85" s="9">
-        <v>88</v>
-      </c>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86">
-        <v>85</v>
-      </c>
-      <c r="I86" s="9">
-        <v>85</v>
-      </c>
-      <c r="J86" s="9">
-        <v>92</v>
-      </c>
-      <c r="K86" s="9">
-        <v>92</v>
-      </c>
-      <c r="L86" s="9">
-        <v>92</v>
-      </c>
-      <c r="M86" s="9">
-        <v>92</v>
-      </c>
-      <c r="N86" s="9">
-        <v>92</v>
-      </c>
-      <c r="O86" s="9">
-        <v>92</v>
-      </c>
-      <c r="P86" s="9">
-        <v>92</v>
-      </c>
-      <c r="Q86" s="9">
-        <v>92</v>
-      </c>
-      <c r="R86" s="9">
-        <v>92</v>
-      </c>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>1666.6666666666699</v>
+      </c>
+      <c r="J86">
+        <v>3333.3333333333298</v>
+      </c>
+      <c r="K86">
+        <v>4774.6371266666702</v>
+      </c>
+      <c r="L86">
+        <v>5000</v>
+      </c>
+      <c r="M86">
+        <v>6666.6666666666697</v>
+      </c>
+      <c r="N86">
+        <v>8333.3333333333303</v>
+      </c>
+      <c r="O86">
+        <v>10000</v>
+      </c>
+      <c r="P86">
+        <v>11666.666666666602</v>
+      </c>
+      <c r="Q86">
+        <v>13333.333333333299</v>
+      </c>
+      <c r="R86">
+        <v>15000</v>
+      </c>
+      <c r="S86">
+        <v>16666.666666666602</v>
+      </c>
+      <c r="T86">
+        <v>18333.333333333299</v>
+      </c>
+      <c r="U86">
+        <v>20000</v>
+      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
       <c r="H87">
-        <v>85</v>
-      </c>
-      <c r="I87" s="9">
-        <v>85</v>
-      </c>
-      <c r="J87" s="9">
-        <v>92</v>
-      </c>
-      <c r="K87" s="9">
-        <v>92</v>
-      </c>
-      <c r="L87" s="9">
-        <v>93</v>
-      </c>
-      <c r="M87" s="9">
-        <v>93</v>
-      </c>
-      <c r="N87" s="9">
-        <v>93</v>
-      </c>
-      <c r="O87" s="9">
-        <v>93</v>
-      </c>
-      <c r="P87" s="9">
-        <v>92</v>
-      </c>
-      <c r="Q87" s="9">
-        <v>92</v>
-      </c>
-      <c r="R87" s="9">
-        <v>92</v>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>20</v>
+      </c>
+      <c r="J87">
+        <v>40</v>
+      </c>
+      <c r="K87">
+        <v>60</v>
+      </c>
+      <c r="L87">
+        <v>80</v>
+      </c>
+      <c r="M87">
+        <v>100</v>
+      </c>
+      <c r="N87">
+        <v>120</v>
+      </c>
+      <c r="O87">
+        <v>140</v>
+      </c>
+      <c r="P87">
+        <v>160</v>
+      </c>
+      <c r="Q87">
+        <v>180</v>
+      </c>
+      <c r="R87">
+        <v>200</v>
       </c>
       <c r="S87" s="9"/>
       <c r="T87" s="9"/>
@@ -4164,7 +4046,9 @@
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="H88">
         <v>85</v>
       </c>
@@ -4172,31 +4056,31 @@
         <v>85</v>
       </c>
       <c r="J88" s="9">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="N88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="P88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="Q88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R88" s="9">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -4213,31 +4097,31 @@
         <v>85</v>
       </c>
       <c r="J89" s="9">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K89" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L89" s="9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q89" s="9">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R89" s="9">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="S89" s="9"/>
       <c r="T89" s="9"/>
@@ -4254,31 +4138,31 @@
         <v>85</v>
       </c>
       <c r="J90" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K90" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L90" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R90" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -4295,31 +4179,31 @@
         <v>85</v>
       </c>
       <c r="J91" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K91" s="9">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O91" s="9">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P91" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q91" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R91" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S91" s="9"/>
       <c r="T91" s="9"/>
@@ -4342,25 +4226,25 @@
         <v>94</v>
       </c>
       <c r="L92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R92" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
@@ -4386,22 +4270,22 @@
         <v>94</v>
       </c>
       <c r="M93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R93" s="9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S93" s="9"/>
       <c r="T93" s="9"/>
@@ -4418,31 +4302,31 @@
         <v>85</v>
       </c>
       <c r="J94" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K94" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L94" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R94" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S94" s="9"/>
       <c r="T94" s="9"/>
@@ -4459,31 +4343,31 @@
         <v>85</v>
       </c>
       <c r="J95" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K95" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R95" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S95" s="9"/>
       <c r="T95" s="9"/>
@@ -4500,31 +4384,31 @@
         <v>85</v>
       </c>
       <c r="J96" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K96" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R96" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S96" s="9"/>
       <c r="T96" s="9"/>
@@ -4541,31 +4425,31 @@
         <v>85</v>
       </c>
       <c r="J97" s="9">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K97" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R97" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="S97" s="9"/>
       <c r="T97" s="9"/>
@@ -4573,201 +4457,208 @@
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
-      <c r="B98" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B98" s="6"/>
       <c r="C98" s="6"/>
-      <c r="D98" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" t="s">
-        <v>51</v>
-      </c>
-      <c r="H98" s="15">
-        <v>0</v>
-      </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="9"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="9"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="9"/>
+      <c r="H98">
+        <v>85</v>
+      </c>
+      <c r="I98" s="9">
+        <v>85</v>
+      </c>
+      <c r="J98" s="9">
+        <v>90</v>
+      </c>
+      <c r="K98" s="9">
+        <v>92</v>
+      </c>
+      <c r="L98" s="9">
+        <v>93</v>
+      </c>
+      <c r="M98" s="9">
+        <v>93</v>
+      </c>
+      <c r="N98" s="9">
+        <v>93</v>
+      </c>
+      <c r="O98" s="9">
+        <v>93</v>
+      </c>
+      <c r="P98" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>93</v>
+      </c>
+      <c r="R98" s="9">
+        <v>93</v>
+      </c>
       <c r="S98" s="9"/>
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
     </row>
-    <row r="99" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
-      <c r="B99" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D99" t="s">
-        <v>50</v>
-      </c>
-      <c r="E99"/>
-      <c r="F99"/>
-      <c r="G99"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
       <c r="H99">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I99" s="9">
+        <v>85</v>
+      </c>
+      <c r="J99" s="9">
+        <v>90</v>
+      </c>
+      <c r="K99" s="9">
+        <v>92</v>
+      </c>
+      <c r="L99" s="9">
+        <v>93</v>
+      </c>
+      <c r="M99" s="9">
+        <v>93</v>
+      </c>
+      <c r="N99" s="9">
+        <v>93</v>
+      </c>
+      <c r="O99" s="9">
+        <v>93</v>
+      </c>
+      <c r="P99" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q99" s="9">
+        <v>93</v>
+      </c>
+      <c r="R99" s="9">
+        <v>93</v>
+      </c>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" t="s">
-        <v>50</v>
-      </c>
-      <c r="E100"/>
-      <c r="F100"/>
-      <c r="G100"/>
+      <c r="C100" s="6"/>
       <c r="H100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="I100" s="9">
+        <v>85</v>
+      </c>
+      <c r="J100" s="9">
+        <v>90</v>
+      </c>
+      <c r="K100" s="9">
+        <v>92</v>
+      </c>
+      <c r="L100" s="9">
+        <v>93</v>
+      </c>
+      <c r="M100" s="9">
+        <v>93</v>
+      </c>
+      <c r="N100" s="9">
+        <v>93</v>
+      </c>
+      <c r="O100" s="9">
+        <v>93</v>
+      </c>
+      <c r="P100" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q100" s="9">
+        <v>93</v>
+      </c>
+      <c r="R100" s="9">
+        <v>93</v>
+      </c>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E101"/>
-      <c r="F101"/>
-      <c r="G101"/>
-      <c r="H101" s="16">
-        <v>90</v>
-      </c>
-      <c r="I101" s="17">
-        <v>90</v>
-      </c>
-      <c r="J101" s="17">
-        <v>90</v>
-      </c>
-      <c r="K101" s="17">
-        <v>90</v>
-      </c>
-      <c r="L101" s="17">
-        <v>90</v>
-      </c>
-      <c r="M101" s="17">
-        <v>90</v>
-      </c>
-      <c r="N101" s="17">
-        <v>90</v>
-      </c>
-      <c r="O101" s="17">
-        <v>90</v>
-      </c>
-      <c r="P101" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q101" s="17">
-        <v>90</v>
-      </c>
-      <c r="R101" s="17">
-        <v>90</v>
-      </c>
+      <c r="C101" s="6"/>
+      <c r="H101">
+        <v>85</v>
+      </c>
+      <c r="I101" s="9">
+        <v>85</v>
+      </c>
+      <c r="J101" s="9">
+        <v>90</v>
+      </c>
+      <c r="K101" s="9">
+        <v>92</v>
+      </c>
+      <c r="L101" s="9">
+        <v>93</v>
+      </c>
+      <c r="M101" s="9">
+        <v>93</v>
+      </c>
+      <c r="N101" s="9">
+        <v>93</v>
+      </c>
+      <c r="O101" s="9">
+        <v>93</v>
+      </c>
+      <c r="P101" s="9">
+        <v>93</v>
+      </c>
+      <c r="Q101" s="9">
+        <v>93</v>
+      </c>
+      <c r="R101" s="9">
+        <v>93</v>
+      </c>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
     </row>
     <row r="102" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102"/>
+      <c r="B102" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D102" t="s">
+        <v>49</v>
+      </c>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102"/>
-      <c r="H102" s="16">
-        <v>90</v>
-      </c>
-      <c r="I102" s="17">
-        <v>90</v>
-      </c>
-      <c r="J102" s="17">
-        <v>90</v>
-      </c>
-      <c r="K102" s="17">
-        <v>90</v>
-      </c>
-      <c r="L102" s="17">
-        <v>90</v>
-      </c>
-      <c r="M102" s="17">
-        <v>90</v>
-      </c>
-      <c r="N102" s="17">
-        <v>90</v>
-      </c>
-      <c r="O102" s="17">
-        <v>90</v>
-      </c>
-      <c r="P102" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q102" s="17">
-        <v>90</v>
-      </c>
-      <c r="R102" s="17">
-        <v>90</v>
+      <c r="H102">
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103"/>
+      <c r="C103" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D103" t="s">
+        <v>49</v>
+      </c>
       <c r="E103"/>
       <c r="F103"/>
       <c r="G103"/>
-      <c r="H103" s="16">
-        <v>90</v>
-      </c>
-      <c r="I103" s="17">
-        <v>90</v>
-      </c>
-      <c r="J103" s="17">
-        <v>90</v>
-      </c>
-      <c r="K103" s="17">
-        <v>90</v>
-      </c>
-      <c r="L103" s="17">
-        <v>90</v>
-      </c>
-      <c r="M103" s="17">
-        <v>90</v>
-      </c>
-      <c r="N103" s="17">
-        <v>90</v>
-      </c>
-      <c r="O103" s="17">
-        <v>90</v>
-      </c>
-      <c r="P103" s="17">
-        <v>90</v>
-      </c>
-      <c r="Q103" s="17">
-        <v>90</v>
-      </c>
-      <c r="R103" s="17">
-        <v>90</v>
+      <c r="H103">
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="D104"/>
       <c r="E104"/>
       <c r="F104"/>
@@ -5142,7 +5033,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="113" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -5184,7 +5075,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="114" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -5226,379 +5117,393 @@
         <v>90</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
+    <row r="115" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115" s="16">
+        <v>90</v>
+      </c>
+      <c r="I115" s="17">
+        <v>90</v>
+      </c>
+      <c r="J115" s="17">
+        <v>90</v>
+      </c>
+      <c r="K115" s="17">
+        <v>90</v>
+      </c>
+      <c r="L115" s="17">
+        <v>90</v>
+      </c>
+      <c r="M115" s="17">
+        <v>90</v>
+      </c>
+      <c r="N115" s="17">
+        <v>90</v>
+      </c>
+      <c r="O115" s="17">
+        <v>90</v>
+      </c>
+      <c r="P115" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q115" s="17">
+        <v>90</v>
+      </c>
+      <c r="R115" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116" s="16">
+        <v>90</v>
+      </c>
+      <c r="I116" s="17">
+        <v>90</v>
+      </c>
+      <c r="J116" s="17">
+        <v>90</v>
+      </c>
+      <c r="K116" s="17">
+        <v>90</v>
+      </c>
+      <c r="L116" s="17">
+        <v>90</v>
+      </c>
+      <c r="M116" s="17">
+        <v>90</v>
+      </c>
+      <c r="N116" s="17">
+        <v>90</v>
+      </c>
+      <c r="O116" s="17">
+        <v>90</v>
+      </c>
+      <c r="P116" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q116" s="17">
+        <v>90</v>
+      </c>
+      <c r="R116" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117" s="16">
+        <v>90</v>
+      </c>
+      <c r="I117" s="17">
+        <v>90</v>
+      </c>
+      <c r="J117" s="17">
+        <v>90</v>
+      </c>
+      <c r="K117" s="17">
+        <v>90</v>
+      </c>
+      <c r="L117" s="17">
+        <v>90</v>
+      </c>
+      <c r="M117" s="17">
+        <v>90</v>
+      </c>
+      <c r="N117" s="17">
+        <v>90</v>
+      </c>
+      <c r="O117" s="17">
+        <v>90</v>
+      </c>
+      <c r="P117" s="17">
+        <v>90</v>
+      </c>
+      <c r="Q117" s="17">
+        <v>90</v>
+      </c>
+      <c r="R117" s="17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D118" t="s">
+        <v>57</v>
+      </c>
+      <c r="H118" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D119" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="6"/>
+      <c r="D120" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="15">
+        <v>0</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C121" s="6"/>
+      <c r="D121" t="s">
         <v>27</v>
       </c>
-      <c r="C115" s="6"/>
-      <c r="D115" t="s">
+      <c r="H121">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A122" s="13"/>
+      <c r="B122" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="6"/>
+      <c r="D122" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H115">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116" s="6"/>
-      <c r="D116" t="s">
-        <v>19</v>
-      </c>
-      <c r="H116">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="6" t="s">
+      <c r="C123" s="6"/>
+      <c r="D123" t="s">
         <v>29</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" t="s">
+      <c r="H123">
+        <f>H122/H121*100</f>
+        <v>9230.7692307692305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H117">
-        <f>H116/H115*100</f>
-        <v>9230.7692307692305</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C118" s="6"/>
-      <c r="H118">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C119" s="6"/>
-      <c r="D119" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120">
-        <v>0.2</v>
-      </c>
-      <c r="J120">
-        <v>0.4</v>
-      </c>
-      <c r="K120">
-        <v>0.6</v>
-      </c>
-      <c r="L120">
-        <v>0.8</v>
-      </c>
-      <c r="M120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D121" t="s">
-        <v>37</v>
-      </c>
-      <c r="H121">
-        <v>243.1</v>
-      </c>
-      <c r="I121">
-        <v>253.1</v>
-      </c>
-      <c r="J121">
-        <v>263.10000000000002</v>
-      </c>
-      <c r="K121">
-        <v>273.10000000000002</v>
-      </c>
-      <c r="L121">
-        <v>283.10000000000002</v>
-      </c>
-      <c r="M121">
-        <v>298.10000000000002</v>
-      </c>
-      <c r="N121">
-        <v>313.10000000000002</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122">
-        <v>201.6</v>
-      </c>
-      <c r="I122">
-        <v>201.6</v>
-      </c>
-      <c r="J122">
-        <v>201.6</v>
-      </c>
-      <c r="K122">
-        <v>201.6</v>
-      </c>
-      <c r="L122">
-        <v>201.6</v>
-      </c>
-      <c r="M122">
-        <v>201.6</v>
-      </c>
-      <c r="N122">
-        <v>201.6</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
-      <c r="H123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="I123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="J123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="K123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="L123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="M123">
-        <v>258.76799999999997</v>
-      </c>
-      <c r="N123">
-        <v>258.76799999999997</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="H124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="I124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="J124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="K124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="L124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="M124">
-        <v>264.95999999999998</v>
-      </c>
-      <c r="N124">
-        <v>264.95999999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
-      <c r="B125" s="6"/>
+      <c r="B125" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C125" s="6"/>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
       <c r="H125">
-        <v>272.952</v>
-      </c>
-      <c r="I125">
-        <v>272.952</v>
-      </c>
-      <c r="J125">
-        <v>272.952</v>
-      </c>
-      <c r="K125">
-        <v>272.952</v>
-      </c>
-      <c r="L125">
-        <v>272.952</v>
-      </c>
-      <c r="M125">
-        <v>272.952</v>
-      </c>
-      <c r="N125">
-        <v>272.952</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H126">
-        <v>286.12799999999999</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>286.12799999999999</v>
+        <v>0.2</v>
       </c>
       <c r="J126">
-        <v>286.12799999999999</v>
+        <v>0.4</v>
       </c>
       <c r="K126">
-        <v>286.12799999999999</v>
+        <v>0.6</v>
       </c>
       <c r="L126">
-        <v>286.12799999999999</v>
+        <v>0.8</v>
       </c>
       <c r="M126">
-        <v>286.12799999999999</v>
-      </c>
-      <c r="N126">
-        <v>286.12799999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="13"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" t="s">
+        <v>36</v>
+      </c>
       <c r="H127">
-        <v>303.91199999999998</v>
+        <v>243.1</v>
       </c>
       <c r="I127">
-        <v>303.91199999999998</v>
+        <v>253.1</v>
       </c>
       <c r="J127">
-        <v>303.91199999999998</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="K127">
-        <v>303.91199999999998</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L127">
-        <v>303.91199999999998</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="M127">
-        <v>303.91199999999998</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="N127">
-        <v>303.91199999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+        <v>313.10000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="13"/>
-      <c r="B128" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="B128" s="6"/>
       <c r="C128" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="D128" t="s">
+        <v>27</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>201.6</v>
       </c>
       <c r="I128">
-        <v>0.2</v>
+        <v>201.6</v>
       </c>
       <c r="J128">
-        <v>0.4</v>
+        <v>201.6</v>
       </c>
       <c r="K128">
-        <v>0.6</v>
+        <v>201.6</v>
       </c>
       <c r="L128">
-        <v>0.8</v>
+        <v>201.6</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>201.6</v>
+      </c>
+      <c r="N128">
+        <v>201.6</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" t="s">
-        <v>37</v>
-      </c>
+      <c r="C129" s="6"/>
       <c r="H129">
-        <v>243.1</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="I129">
-        <v>253.1</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="J129">
-        <v>263.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="K129">
-        <v>273.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="L129">
-        <v>283.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="M129">
-        <v>298.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
       <c r="N129">
-        <v>313.10000000000002</v>
+        <v>258.76799999999997</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" t="s">
-        <v>41</v>
-      </c>
+      <c r="C130" s="6"/>
       <c r="H130">
-        <v>0.31845600000000002</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="I130">
-        <v>0.23000399999999999</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="J130">
-        <v>0.15710399999999999</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="K130">
-        <v>7.3116E-2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="L130">
-        <v>5.1948000000000001E-2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="M130">
-        <v>2.0170799999999999E-2</v>
+        <v>264.95999999999998</v>
       </c>
       <c r="N130">
-        <v>3.7007999999999999E-2</v>
+        <v>264.95999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.25">
@@ -5606,25 +5511,25 @@
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="H131">
-        <v>0.335484</v>
+        <v>272.952</v>
       </c>
       <c r="I131">
-        <v>0.23594399999999999</v>
+        <v>272.952</v>
       </c>
       <c r="J131">
-        <v>0.14763599999999999</v>
+        <v>272.952</v>
       </c>
       <c r="K131">
-        <v>9.2268000000000003E-2</v>
+        <v>272.952</v>
       </c>
       <c r="L131">
-        <v>6.5699999999999995E-2</v>
+        <v>272.952</v>
       </c>
       <c r="M131">
-        <v>2.58912E-2</v>
+        <v>272.952</v>
       </c>
       <c r="N131">
-        <v>4.8168000000000002E-2</v>
+        <v>272.952</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.25">
@@ -5632,25 +5537,25 @@
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="H132">
-        <v>0.32497199999999998</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="I132">
-        <v>0.199908</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="J132">
-        <v>0.14616000000000001</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="K132">
-        <v>9.1151999999999997E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="L132">
-        <v>6.4619999999999997E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="M132">
-        <v>2.4793200000000001E-2</v>
+        <v>286.12799999999999</v>
       </c>
       <c r="N132">
-        <v>3.5999999999999997E-2</v>
+        <v>286.12799999999999</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.25">
@@ -5658,153 +5563,320 @@
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="H133">
-        <v>0.30492000000000002</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="I133">
-        <v>0.19889999999999999</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="J133">
-        <v>0.12427199999999999</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="K133">
-        <v>8.856E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="L133">
-        <v>6.4007999999999995E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="M133">
-        <v>2.7205199999999999E-2</v>
+        <v>303.91199999999998</v>
       </c>
       <c r="N133">
-        <v>5.5295999999999998E-2</v>
+        <v>303.91199999999998</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+      <c r="B134" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="H134">
-        <v>0.37152000000000002</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>0.21754799999999999</v>
+        <v>0.2</v>
       </c>
       <c r="J134">
-        <v>0.138456</v>
+        <v>0.4</v>
       </c>
       <c r="K134">
-        <v>9.7776000000000002E-2</v>
+        <v>0.6</v>
       </c>
       <c r="L134">
-        <v>6.9264000000000006E-2</v>
+        <v>0.8</v>
       </c>
       <c r="M134">
-        <v>2.6478000000000002E-2</v>
-      </c>
-      <c r="N134">
-        <v>5.5655999999999997E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
       <c r="H135">
-        <v>0.47304000000000002</v>
+        <v>243.1</v>
       </c>
       <c r="I135">
-        <v>0.28098000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="J135">
-        <v>0.16261200000000001</v>
+        <v>263.10000000000002</v>
       </c>
       <c r="K135">
-        <v>0.109692</v>
+        <v>273.10000000000002</v>
       </c>
       <c r="L135">
-        <v>8.0423999999999995E-2</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="M135">
-        <v>3.6504000000000002E-2</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="N135">
-        <v>0.10040399999999999</v>
+        <v>313.10000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
-      <c r="B136" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="B136" s="6"/>
       <c r="C136" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H136">
-        <v>243.1</v>
+        <v>0.31845600000000002</v>
       </c>
       <c r="I136">
-        <v>253.1</v>
+        <v>0.23000399999999999</v>
       </c>
       <c r="J136">
-        <v>263.10000000000002</v>
+        <v>0.15710399999999999</v>
       </c>
       <c r="K136">
-        <v>273.10000000000002</v>
+        <v>7.3116E-2</v>
       </c>
       <c r="L136">
-        <v>283.10000000000002</v>
+        <v>5.1948000000000001E-2</v>
       </c>
       <c r="M136">
-        <v>298.10000000000002</v>
+        <v>2.0170799999999999E-2</v>
       </c>
       <c r="N136">
-        <v>313.10000000000002</v>
+        <v>3.7007999999999999E-2</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D137" t="s">
-        <v>42</v>
-      </c>
+      <c r="C137" s="6"/>
       <c r="H137">
-        <v>230</v>
+        <v>0.335484</v>
       </c>
       <c r="I137">
-        <v>230</v>
+        <v>0.23594399999999999</v>
       </c>
       <c r="J137">
-        <v>230</v>
+        <v>0.14763599999999999</v>
       </c>
       <c r="K137">
-        <v>230</v>
+        <v>9.2268000000000003E-2</v>
       </c>
       <c r="L137">
-        <v>230</v>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="M137">
-        <v>230</v>
+        <v>2.58912E-2</v>
       </c>
       <c r="N137">
-        <v>230</v>
+        <v>4.8168000000000002E-2</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="H138">
+        <v>0.32497199999999998</v>
+      </c>
+      <c r="I138">
+        <v>0.199908</v>
+      </c>
+      <c r="J138">
+        <v>0.14616000000000001</v>
+      </c>
+      <c r="K138">
+        <v>9.1151999999999997E-2</v>
+      </c>
+      <c r="L138">
+        <v>6.4619999999999997E-2</v>
+      </c>
+      <c r="M138">
+        <v>2.4793200000000001E-2</v>
+      </c>
+      <c r="N138">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="H139">
+        <v>0.30492000000000002</v>
+      </c>
+      <c r="I139">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="J139">
+        <v>0.12427199999999999</v>
+      </c>
+      <c r="K139">
+        <v>8.856E-2</v>
+      </c>
+      <c r="L139">
+        <v>6.4007999999999995E-2</v>
+      </c>
+      <c r="M139">
+        <v>2.7205199999999999E-2</v>
+      </c>
+      <c r="N139">
+        <v>5.5295999999999998E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="H140">
+        <v>0.37152000000000002</v>
+      </c>
+      <c r="I140">
+        <v>0.21754799999999999</v>
+      </c>
+      <c r="J140">
+        <v>0.138456</v>
+      </c>
+      <c r="K140">
+        <v>9.7776000000000002E-2</v>
+      </c>
+      <c r="L140">
+        <v>6.9264000000000006E-2</v>
+      </c>
+      <c r="M140">
+        <v>2.6478000000000002E-2</v>
+      </c>
+      <c r="N140">
+        <v>5.5655999999999997E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="H141">
+        <v>0.47304000000000002</v>
+      </c>
+      <c r="I141">
+        <v>0.28098000000000001</v>
+      </c>
+      <c r="J141">
+        <v>0.16261200000000001</v>
+      </c>
+      <c r="K141">
+        <v>0.109692</v>
+      </c>
+      <c r="L141">
+        <v>8.0423999999999995E-2</v>
+      </c>
+      <c r="M141">
+        <v>3.6504000000000002E-2</v>
+      </c>
+      <c r="N141">
+        <v>0.10040399999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="13"/>
+      <c r="B142" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" t="s">
+        <v>36</v>
+      </c>
+      <c r="H142">
+        <v>243.1</v>
+      </c>
+      <c r="I142">
+        <v>253.1</v>
+      </c>
+      <c r="J142">
+        <v>263.10000000000002</v>
+      </c>
+      <c r="K142">
+        <v>273.10000000000002</v>
+      </c>
+      <c r="L142">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="M142">
+        <v>298.10000000000002</v>
+      </c>
+      <c r="N142">
+        <v>313.10000000000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="13"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D143" t="s">
+        <v>41</v>
+      </c>
+      <c r="H143">
+        <v>230</v>
+      </c>
+      <c r="I143">
+        <v>230</v>
+      </c>
+      <c r="J143">
+        <v>230</v>
+      </c>
+      <c r="K143">
+        <v>230</v>
+      </c>
+      <c r="L143">
+        <v>230</v>
+      </c>
+      <c r="M143">
+        <v>230</v>
+      </c>
+      <c r="N143">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C144" s="6"/>
+      <c r="D144" t="s">
         <v>45</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" t="s">
-        <v>46</v>
-      </c>
-      <c r="H138">
+      <c r="H144">
         <v>0.8</v>
       </c>
     </row>
@@ -5819,12 +5891,12 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
+  <conditionalFormatting sqref="B47">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B81">
+  <conditionalFormatting sqref="B85">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
